--- a/Modelos/Microssimulação/output/raw/resultados.xlsx
+++ b/Modelos/Microssimulação/output/raw/resultados.xlsx
@@ -424,48 +424,48 @@
   <sheetData>
     <row r="3">
       <c r="B3" t="n">
-        <v>0.106114399696769</v>
+        <v>0.10600778722835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391568135020062</v>
+        <v>0.391341922628492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0501757416602916</v>
+        <v>0.0501621751880079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.179596525874711</v>
+        <v>0.179451862973553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0320688562866358</v>
+        <v>0.0320628043514533</v>
       </c>
       <c r="G3" t="n">
-        <v>0.111513885959589</v>
+        <v>0.111437417262175</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45704913502877</v>
+        <v>0.457127428168082</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>0.052084772486139</v>
+        <v>0.052073744664676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195033009305829</v>
+        <v>0.194890030136346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0300460145317326</v>
+        <v>0.0300404193255161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0841007488158465</v>
+        <v>0.0840124765394958</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0220555162066006</v>
+        <v>0.0220519566325131</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0539225657819428</v>
+        <v>0.0538835304144147</v>
       </c>
       <c r="H4" t="n">
-        <v>0.442367542784872</v>
+        <v>0.442404863438345</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>0.0393207120756347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0817731308737015</v>
+        <v>0.0816781128136508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0274034539594111</v>
+        <v>0.0273982868235627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0474710921552829</v>
+        <v>0.0474451422792533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0230620944386382</v>
+        <v>0.0230586149036528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0369915194990022</v>
+        <v>0.0369781112570936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.487405338688755</v>
+        <v>0.487442118877412</v>
       </c>
     </row>
   </sheetData>
